--- a/results/chart.xlsx
+++ b/results/chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\debian-development\home\unixuser\code\cs739-final-project\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2669208-A5D3-41FC-A1BE-1E20887B6CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8696DA-5658-4BDC-90FF-5471EA4C4265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18274" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18274" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="realtime" sheetId="1" r:id="rId1"/>
@@ -26,12 +26,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>real_time_leader</t>
-  </si>
-  <si>
-    <t>cpu_time_leader</t>
   </si>
   <si>
     <t>Average Time per (ns) Operation</t>
@@ -66,13 +63,27 @@
   <si>
     <t>https://github.com/google/benchmark/issues/397</t>
   </si>
+  <si>
+    <t>Average Real Time per Operation (ns)</t>
+  </si>
+  <si>
+    <t>CPU time</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -107,12 +118,13 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -146,6 +158,910 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>realtime!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Time per (ns) Operation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>realtime!$A$3:$B$32</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="30"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>cluster size</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>10</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>operation type</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>open session</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>close session</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>acquire lock</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>write file</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>read file</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>open, acquire, write, read, close</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>realtime!$C$3:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11210900000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11626000000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13740000000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15064100000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15532200000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15551200000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15653400000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15668500000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1489100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>725700</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>334200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>383600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>918800</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1126100</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1197300</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1978900</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>500500</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>606200</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>354000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>495400</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4184200</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4998900</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8773000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7251100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3EAF-427D-ADE2-4DFB1E44E841}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="501661680"/>
+        <c:axId val="501657520"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="501661680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="501657520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="501657520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="501661680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>realtime!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Time per (ns) Operation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>realtime!$A$3:$B$32</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="30"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>cluster size</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>10</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>operation type</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>open session</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>close session</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>acquire lock</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>write file</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>read file</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>open, acquire, write, read, close</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>realtime!$C$3:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11210900000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11626000000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13740000000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15064100000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15532200000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15551200000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15653400000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15668500000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1489100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>725700</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>334200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>383600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>918800</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1126100</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1197300</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1978900</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>500500</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>606200</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>354000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>495400</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4184200</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4998900</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8773000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7251100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8303-4022-9068-38D1A07929D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="625747424"/>
+        <c:axId val="625752416"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="625747424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="625752416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="625752416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="625747424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -165,12 +1081,18 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Average</a:t>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Client Session perations</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US" b="0" baseline="0"/>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Real Time (ns) per operation</a:t>
+              <a:t>Average Real Time per Operation (ms)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -207,33 +1129,94 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.14101456578087701"/>
-          <c:y val="0.13477636747613803"/>
-          <c:w val="0.82915782371604629"/>
-          <c:h val="0.70795997822029622"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>close session</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'cpu time'!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'cpu time'!$C$8:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6007580</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8048710</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7773270</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10578100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BDB3-4414-9AD8-78B0B0EB07A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>realtime!$C$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>real_time_leader</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>open session</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -261,10 +1244,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>realtime!$B$4:$B$12</c:f>
+              <c:f>'cpu time'!$B$3:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -275,18 +1258,6 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -294,33 +1265,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>realtime!$C$4:$C$12</c:f>
+              <c:f>'cpu time'!$C$3:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>11210900000000</c:v>
+                  <c:v>7336140</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11626000000000</c:v>
+                  <c:v>6378860</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13740000000000</c:v>
+                  <c:v>8808930</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15064100000000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15532200000000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15551200000000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15653400000000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15668500000000</c:v>
+                  <c:v>9356880</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -328,104 +1287,12 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-2C30-446F-A639-68A80149707A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>realtime!#REF!</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>#REF!</c:v>
-                </c:pt>
-              </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>realtime!$B$4:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>realtime!#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-2C30-446F-A639-68A80149707A}"/>
+              <c16:uniqueId val="{00000003-BDB3-4414-9AD8-78B0B0EB07A9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -435,146 +1302,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1501639584"/>
-        <c:axId val="1501637920"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>realtime!$B$3</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>cluster size</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent1"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>realtime!$B$4:$B$12</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="9"/>
-                      <c:pt idx="0">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>10</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>realtime!$B$4:$B$12</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="9"/>
-                      <c:pt idx="0">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>10</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-2C30-446F-A639-68A80149707A}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-          </c:ext>
-        </c:extLst>
+        <c:axId val="1141360016"/>
+        <c:axId val="1141362512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1501639584"/>
+        <c:axId val="1141360016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -615,19 +1347,15 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>number of nodes</a:t>
+                  <a:t>Cluster</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> size</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.40114528656817661"/>
-              <c:y val="0.91249819526660059"/>
-            </c:manualLayout>
-          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -694,7 +1422,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1501637920"/>
+        <c:crossAx val="1141362512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -702,7 +1430,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1501637920"/>
+        <c:axId val="1141362512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -722,6 +1450,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -729,7 +1471,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -742,17 +1484,20 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>10^3</a:t>
+                  <a:rPr lang="en-US" i="1"/>
+                  <a:t>milliseconds</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> milliseconds</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="7.8238017516038968E-2"/>
+              <c:y val="0.37197460147735867"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -766,7 +1511,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -798,6 +1543,51 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1141360016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="tenMillions"/>
+        </c:dispUnits>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
@@ -813,13 +1603,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1501639584"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:dispUnits>
-          <c:builtInUnit val="billions"/>
-        </c:dispUnits>
-      </c:valAx>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -828,844 +1612,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.78071890339707584"/>
-          <c:y val="0.92360667640297178"/>
-          <c:w val="0.21928113871685284"/>
-          <c:h val="7.537742525003413E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Average</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> CPU Time (ns) per Operation</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.10560689538327583"/>
-          <c:y val="0.13477636747613803"/>
-          <c:w val="0.8645655106448229"/>
-          <c:h val="0.70795997822029622"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>realtime!#REF!</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>#REF!</c:v>
-                </c:pt>
-              </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>realtime!$B$4:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>realtime!#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7358-4051-9EF4-DFAD1EACE53C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1501639584"/>
-        <c:axId val="1501637920"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>realtime!$B$3</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>cluster size</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent1"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>realtime!$B$4:$B$12</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="9"/>
-                      <c:pt idx="0">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>10</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>realtime!$B$4:$B$12</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="9"/>
-                      <c:pt idx="0">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>10</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000001-7358-4051-9EF4-DFAD1EACE53C}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="1"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>realtime!$C$3</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>real_time_leader</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent2"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent2"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent2"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>realtime!$B$4:$B$12</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="9"/>
-                      <c:pt idx="0">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>10</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>realtime!$C$4:$C$12</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00E+00</c:formatCode>
-                      <c:ptCount val="9"/>
-                      <c:pt idx="0">
-                        <c:v>11210900000000</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>11626000000000</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>13740000000000</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>15064100000000</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>15532200000000</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>15551200000000</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>15653400000000</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>15668500000000</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-7358-4051-9EF4-DFAD1EACE53C}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-          </c:ext>
-        </c:extLst>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1501639584"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>number of nodes</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.40114528656817661"/>
-              <c:y val="0.91249819526660059"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1501637920"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1501637920"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>microseconds</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1501639584"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:dispUnits>
-          <c:builtInUnit val="thousands"/>
-        </c:dispUnits>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.72352176682401037"/>
-          <c:y val="0.92360652735168869"/>
-          <c:w val="0.26013622628317995"/>
-          <c:h val="7.537742525003413E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1790,8 +1736,48 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2796,27 +2782,530 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>476545</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>41027</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>99389</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>105071</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>556829</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>24018</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>501689</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>37863</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91DA645E-F0C5-42E8-0844-E6460F3FA24D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F980BE07-E5B0-FFDA-52B3-E93D6312F69E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2836,29 +3325,27 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>594241</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>180295</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>312371</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>10413</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>452011</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>156823</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>312371</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>169439</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EA6F780-0175-4EA7-8E5C-574061E4A1AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEC3DC54-9311-FA16-DBA2-438BE7E67A5F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2867,6 +3354,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>250371</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>117020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>544285</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>48986</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13D8C6E8-9FF4-F2E4-4EEE-2D320748EB3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3140,8 +3668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+    <sheetView topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3153,23 +3681,23 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -3177,7 +3705,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -3215,7 +3743,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -3253,7 +3781,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -3291,7 +3819,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -3329,7 +3857,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -3367,7 +3895,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -3414,8 +3942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53895507-76A5-445F-B380-AF12C8E09596}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3426,24 +3954,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>3</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -3453,6 +3981,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="3"/>
       <c r="B4">
         <v>3</v>
       </c>
@@ -3461,6 +3990,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="3"/>
       <c r="B5">
         <v>5</v>
       </c>
@@ -3469,6 +3999,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="3"/>
       <c r="B6">
         <v>10</v>
       </c>
@@ -3477,11 +4008,12 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="3"/>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>4</v>
+      <c r="A8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -3491,6 +4023,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="3"/>
       <c r="B9">
         <v>3</v>
       </c>
@@ -3499,6 +4032,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="3"/>
       <c r="B10">
         <v>5</v>
       </c>
@@ -3507,6 +4041,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="3"/>
       <c r="B11">
         <v>10</v>
       </c>
@@ -3514,9 +4049,12 @@
         <v>10578100</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="3"/>
+    </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>7</v>
+      <c r="A13" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -3526,6 +4064,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="3"/>
       <c r="B14">
         <v>3</v>
       </c>
@@ -3534,6 +4073,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="3"/>
       <c r="B15">
         <v>5</v>
       </c>
@@ -3542,6 +4082,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="3"/>
       <c r="B16">
         <v>10</v>
       </c>
@@ -3549,9 +4090,12 @@
         <v>183740</v>
       </c>
     </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="3"/>
+    </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>8</v>
+      <c r="A18" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -3561,6 +4105,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" s="3"/>
       <c r="B19">
         <v>3</v>
       </c>
@@ -3569,6 +4114,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" s="3"/>
       <c r="B20">
         <v>5</v>
       </c>
@@ -3577,6 +4123,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" s="3"/>
       <c r="B21">
         <v>10</v>
       </c>
@@ -3584,9 +4131,12 @@
         <v>226174</v>
       </c>
     </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" s="3"/>
+    </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>9</v>
+      <c r="A23" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -3596,6 +4146,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" s="3"/>
       <c r="B24">
         <v>3</v>
       </c>
@@ -3604,6 +4155,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" s="3"/>
       <c r="B25">
         <v>5</v>
       </c>
@@ -3612,6 +4164,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26" s="3"/>
       <c r="B26">
         <v>10</v>
       </c>
@@ -3619,9 +4172,12 @@
         <v>240749</v>
       </c>
     </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27" s="3"/>
+    </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
-        <v>10</v>
+      <c r="A28" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -3631,6 +4187,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29" s="3"/>
       <c r="B29">
         <v>3</v>
       </c>
@@ -3639,6 +4196,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30" s="3"/>
       <c r="B30">
         <v>5</v>
       </c>
@@ -3647,6 +4205,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31" s="3"/>
       <c r="B31">
         <v>10</v>
       </c>
@@ -3656,5 +4215,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/results/chart.xlsx
+++ b/results/chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\debian-development\home\unixuser\code\cs739-final-project\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8696DA-5658-4BDC-90FF-5471EA4C4265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4201CE8-F1E9-4707-877B-CC6CEADADE55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18274" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,12 +27,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
-  <si>
-    <t>real_time_leader</t>
-  </si>
-  <si>
-    <t>Average Time per (ns) Operation</t>
-  </si>
   <si>
     <t>open session</t>
   </si>
@@ -64,10 +58,16 @@
     <t>https://github.com/google/benchmark/issues/397</t>
   </si>
   <si>
-    <t>Average Real Time per Operation (ns)</t>
+    <t>CPU time</t>
   </si>
   <si>
-    <t>CPU time</t>
+    <t>Average Real Time per (ns) Operation</t>
+  </si>
+  <si>
+    <t>Real Time</t>
+  </si>
+  <si>
+    <t>Average CPU Time per Operation (ns)</t>
   </si>
 </sst>
 </file>
@@ -120,11 +120,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -144,910 +153,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>realtime!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Average Time per (ns) Operation</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>realtime!$A$3:$B$32</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="30"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>cluster size</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>10</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>10</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>10</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>10</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>10</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>10</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>operation type</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>open session</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>close session</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>acquire lock</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>write file</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>read file</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>open, acquire, write, read, close</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>realtime!$C$3:$C$32</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11210900000000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11626000000000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13740000000000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15064100000000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15532200000000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15551200000000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15653400000000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15668500000000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1489100</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>725700</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>334200</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>383600</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>918800</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1126100</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1197300</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1978900</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>500500</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>606200</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>354000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>495400</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4184200</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4998900</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>8773000</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>7251100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3EAF-427D-ADE2-4DFB1E44E841}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="501661680"/>
-        <c:axId val="501657520"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="501661680"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="501657520"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="501657520"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="501661680"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>realtime!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Average Time per (ns) Operation</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>realtime!$A$3:$B$32</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="30"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>cluster size</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>10</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>10</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>10</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>10</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>10</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>10</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>operation type</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>open session</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>close session</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>acquire lock</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>write file</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>read file</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>open, acquire, write, read, close</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>realtime!$C$3:$C$32</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11210900000000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11626000000000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13740000000000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15064100000000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15532200000000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15551200000000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15653400000000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15668500000000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1489100</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>725700</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>334200</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>383600</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>918800</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1126100</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1197300</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1978900</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>500500</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>606200</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>354000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>495400</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4184200</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4998900</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>8773000</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>7251100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8303-4022-9068-38D1A07929D4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="625747424"/>
-        <c:axId val="625752416"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="625747424"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="625752416"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="625752416"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="625747424"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1082,7 +187,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Client Session perations</a:t>
+              <a:t>Client Session Operations</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" b="0" baseline="0"/>
           </a:p>
@@ -1092,7 +197,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t>Average Real Time per Operation (ms)</a:t>
+              <a:t>Average CPU Time per Operation (ms)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1656,6 +761,1650 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Acquire, Read, Write Operations</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="0" baseline="0"/>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Average CPU Time per Operation (ms)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>acquire lock</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'cpu time'!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'cpu time'!$C$13:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>259376</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>212274</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>167429</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>183740</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BDB3-4414-9AD8-78B0B0EB07A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>write file</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'cpu time'!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'cpu time'!$C$18:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>254299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>205496</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>220064</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>226174</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BDB3-4414-9AD8-78B0B0EB07A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>read file</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'cpu time'!$C$23:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>219562</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>241751</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>197717</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>240749</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FAF2-45C1-AD4B-89C64255A897}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1141360016"/>
+        <c:axId val="1141362512"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1141360016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cluster</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1141362512"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1141362512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" i="1"/>
+                  <a:t>milliseconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="7.8238017516038968E-2"/>
+              <c:y val="0.37197460147735867"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1141360016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="tenMillions"/>
+        </c:dispUnits>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Operation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> Sequence: open-acquire-write-read-close</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="0" baseline="0"/>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Average CPU Time per Operation (ms)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ops. sequence</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'cpu time'!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'cpu time'!$C$28:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2162430</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017470</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4195090</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3053070</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BDB3-4414-9AD8-78B0B0EB07A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1141360016"/>
+        <c:axId val="1141362512"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1141360016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cluster</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1141362512"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1141362512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" i="1"/>
+                  <a:t>milliseconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="7.8238017516038968E-2"/>
+              <c:y val="0.37197460147735867"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1141360016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="tenMillions"/>
+        </c:dispUnits>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'cpu time'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average CPU Time per Operation (ns)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'cpu time'!$A$2:$B$31</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="30"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>cluster size</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>10</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>operation type</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>open session</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>close session</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>acquire lock</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>write file</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>read file</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>open, acquire, write, read, close</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'cpu time'!$C$2:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7336140</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6378860</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8808930</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9356880</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6007580</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8048710</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7773270</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10578100</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>259376</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>212274</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>167429</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>183740</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>254299</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>205496</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>220064</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>226174</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>219562</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>241751</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>197717</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>240749</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2162430</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2017470</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4195090</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3053070</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5505-44AC-946E-85C4F1355008}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="2067559520"/>
+        <c:axId val="2067559936"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2067559520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2067559936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2067559936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2067559520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1776,8 +2525,48 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3253,6 +4042,511 @@
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3290,22 +4584,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>99389</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>105071</xdr:rowOff>
+      <xdr:colOff>370036</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>59117</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>501689</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>37863</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>11580</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>176371</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
+        <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F980BE07-E5B0-FFDA-52B3-E93D6312F69E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13D8C6E8-9FF4-F2E4-4EEE-2D320748EB3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3326,22 +4620,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>312371</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>10413</xdr:rowOff>
+      <xdr:colOff>381616</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>86138</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>312371</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>169439</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>23160</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>18105</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7">
+        <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEC3DC54-9311-FA16-DBA2-438BE7E67A5F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A85E992D-A689-BD9D-9768-289B38F69291}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3359,30 +4653,25 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>250371</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>117020</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>366176</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>155622</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>544285</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>48986</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>7720</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>87587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
+        <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13D8C6E8-9FF4-F2E4-4EEE-2D320748EB3C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28A1F829-FED9-6FF5-B2E0-3E4D91B8E267}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3394,7 +4683,43 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>51340</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>75967</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>185288</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>88785</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69B3E02E-FC31-B267-8F20-D5D02B171622}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3668,44 +4993,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="17.921875" customWidth="1"/>
     <col min="2" max="2" width="22.84375" customWidth="1"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="3" max="3" width="29.765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -3743,7 +5068,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -3781,7 +5106,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -3819,7 +5144,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -3857,7 +5182,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -3895,7 +5220,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -3934,7 +5259,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3942,110 +5266,110 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53895507-76A5-445F-B380-AF12C8E09596}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X31" sqref="X31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="24.3828125" customWidth="1"/>
-    <col min="2" max="2" width="19.15234375" customWidth="1"/>
-    <col min="3" max="3" width="22.61328125" customWidth="1"/>
+    <col min="2" max="2" width="14.765625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="22.61328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C1" s="3" t="s">
-        <v>12</v>
+      <c r="C1" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>13</v>
+        <v>3</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="6">
         <v>7336140</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="6">
         <v>6378860</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
-      <c r="B5">
+      <c r="B5" s="4">
         <v>5</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="6">
         <v>8808930</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>10</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="6">
         <v>9356880</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="3"/>
-      <c r="C7" s="1"/>
+      <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="1">
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6">
         <v>6007580</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
-      <c r="B9">
+      <c r="B9" s="4">
         <v>3</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="6">
         <v>8048710</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="3"/>
-      <c r="B10">
+      <c r="B10" s="4">
         <v>5</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="6">
         <v>7773270</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="3"/>
-      <c r="B11">
+      <c r="B11" s="4">
         <v>10</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="6">
         <v>10578100</v>
       </c>
     </row>
@@ -4054,39 +5378,39 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="B13" s="4">
         <v>1</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="4">
         <v>259376</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="3"/>
-      <c r="B14">
+      <c r="B14" s="4">
         <v>3</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="4">
         <v>212274</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
-      <c r="B15">
+      <c r="B15" s="4">
         <v>5</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="4">
         <v>167429</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
-      <c r="B16">
+      <c r="B16" s="4">
         <v>10</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="4">
         <v>183740</v>
       </c>
     </row>
@@ -4095,39 +5419,39 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="B18" s="4">
         <v>1</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="4">
         <v>254299</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
-      <c r="B19">
+      <c r="B19" s="4">
         <v>3</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="4">
         <v>205496</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
-      <c r="B20">
+      <c r="B20" s="4">
         <v>5</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="4">
         <v>220064</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
-      <c r="B21">
+      <c r="B21" s="4">
         <v>10</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="4">
         <v>226174</v>
       </c>
     </row>
@@ -4136,39 +5460,39 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="B23" s="4">
         <v>1</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="4">
         <v>219562</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="3"/>
-      <c r="B24">
+      <c r="B24" s="4">
         <v>3</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="4">
         <v>241751</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="3"/>
-      <c r="B25">
+      <c r="B25" s="4">
         <v>5</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="4">
         <v>197717</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="3"/>
-      <c r="B26">
+      <c r="B26" s="4">
         <v>10</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="4">
         <v>240749</v>
       </c>
     </row>
@@ -4177,39 +5501,39 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28">
+        <v>7</v>
+      </c>
+      <c r="B28" s="4">
         <v>1</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="6">
         <v>2162430</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" s="3"/>
-      <c r="B29">
+      <c r="B29" s="4">
         <v>3</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="6">
         <v>2017470</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="3"/>
-      <c r="B30">
+      <c r="B30" s="4">
         <v>5</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="6">
         <v>4195090</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
-      <c r="B31">
+      <c r="B31" s="4">
         <v>10</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="6">
         <v>3053070</v>
       </c>
     </row>
